--- a/FinViz_Parser/Finviz_TLSupport_Oversold40_InvHammer/Finviz_TLSupport_Oversold40_InvHammer.xlsx
+++ b/FinViz_Parser/Finviz_TLSupport_Oversold40_InvHammer/Finviz_TLSupport_Oversold40_InvHammer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="23" autoFilterDateGrouping="1" firstSheet="9" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="897" visibility="visible" windowHeight="8970" windowWidth="14370" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="851" visibility="visible" windowHeight="8970" windowWidth="14370" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily Stock List" sheetId="1" state="visible" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PS" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="p_FCF" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Divident Pct" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
   <si>
     <t>Stock Additions</t>
   </si>
@@ -52,7 +51,7 @@
     <t>Percent Change</t>
   </si>
   <si>
-    <t>Beta</t>
+    <t>Rsi</t>
   </si>
   <si>
     <t>Sector</t>
@@ -61,102 +60,111 @@
     <t>Industry</t>
   </si>
   <si>
-    <t>EME</t>
-  </si>
-  <si>
-    <t>Industrial Goods</t>
-  </si>
-  <si>
-    <t>General Contractors</t>
-  </si>
-  <si>
-    <t>BF-B</t>
+    <t>CMTL</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Communication Equipment</t>
+  </si>
+  <si>
+    <t>DIOD</t>
+  </si>
+  <si>
+    <t>Semiconductor - Integrated Circuits</t>
+  </si>
+  <si>
+    <t>ANF</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Apparel Stores</t>
+  </si>
+  <si>
+    <t>CRVS</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>CNOB</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Regional - Northeast Banks</t>
+  </si>
+  <si>
+    <t>ATEN</t>
+  </si>
+  <si>
+    <t>CCBG</t>
+  </si>
+  <si>
+    <t>Regional - Mid-Atlantic Banks</t>
+  </si>
+  <si>
+    <t>CASI</t>
+  </si>
+  <si>
+    <t>AOSL</t>
+  </si>
+  <si>
+    <t>Semiconductor - Specialized</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Regional - Pacific Banks</t>
+  </si>
+  <si>
+    <t>DCOM</t>
+  </si>
+  <si>
+    <t>Savings &amp; Loans</t>
+  </si>
+  <si>
+    <t>BANF</t>
+  </si>
+  <si>
+    <t>Regional - Southwest  Banks</t>
+  </si>
+  <si>
+    <t>BSET</t>
   </si>
   <si>
     <t>Consumer Goods</t>
   </si>
   <si>
-    <t>Beverages - Wineries &amp; Distillers</t>
-  </si>
-  <si>
-    <t>EMCI</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>Property &amp; Casualty Insurance</t>
-  </si>
-  <si>
-    <t>CNOB</t>
-  </si>
-  <si>
-    <t>Regional - Northeast Banks</t>
-  </si>
-  <si>
-    <t>CBK</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Apparel Stores</t>
-  </si>
-  <si>
-    <t>FVE</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Long-Term Care Facilities</t>
-  </si>
-  <si>
-    <t>IOR</t>
-  </si>
-  <si>
-    <t>REIT - Diversified</t>
-  </si>
-  <si>
-    <t>FBC</t>
-  </si>
-  <si>
-    <t>Savings &amp; Loans</t>
-  </si>
-  <si>
-    <t>FOLD</t>
-  </si>
-  <si>
-    <t>Biotechnology</t>
-  </si>
-  <si>
-    <t>JACK</t>
-  </si>
-  <si>
-    <t>Restaurants</t>
-  </si>
-  <si>
-    <t>MORN</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Information &amp; Delivery Services</t>
-  </si>
-  <si>
-    <t>INTL</t>
-  </si>
-  <si>
-    <t>Investment Brokerage - National</t>
-  </si>
-  <si>
-    <t>HOFT</t>
-  </si>
-  <si>
     <t>Home Furnishings &amp; Fixtures</t>
   </si>
   <si>
+    <t>CBU</t>
+  </si>
+  <si>
+    <t>Regional - Midwest Banks</t>
+  </si>
+  <si>
+    <t>CNTY</t>
+  </si>
+  <si>
+    <t>Resorts &amp; Casinos</t>
+  </si>
+  <si>
+    <t>APEI</t>
+  </si>
+  <si>
+    <t>Education &amp; Training Services</t>
+  </si>
+  <si>
     <t>CDZI</t>
   </si>
   <si>
@@ -166,28 +174,16 @@
     <t>Water Utilities</t>
   </si>
   <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Staffing &amp; Outsourcing Services</t>
-  </si>
-  <si>
-    <t>MRIN</t>
-  </si>
-  <si>
-    <t>Application Software</t>
-  </si>
-  <si>
-    <t>LYTS</t>
-  </si>
-  <si>
-    <t>Industrial Electrical Equipment</t>
-  </si>
-  <si>
-    <t>FMNB</t>
-  </si>
-  <si>
-    <t>Regional - Midwest Banks</t>
+    <t>ACTG</t>
+  </si>
+  <si>
+    <t>Business Services</t>
+  </si>
+  <si>
+    <t>ANIP</t>
+  </si>
+  <si>
+    <t>BUSE</t>
   </si>
   <si>
     <t>Date</t>
@@ -202,589 +198,775 @@
     <t>Stock/Date</t>
   </si>
   <si>
-    <t>75.33 (0.22%)</t>
-  </si>
-  <si>
-    <t>48.83 (0.39%)</t>
-  </si>
-  <si>
-    <t>24.75 (0.92%)</t>
+    <t>32.41 (-1.25%)</t>
+  </si>
+  <si>
+    <t>33.22 (1.62%)</t>
+  </si>
+  <si>
+    <t>19.60 (2.06%)</t>
+  </si>
+  <si>
+    <t>9.43 (-1.05%)</t>
   </si>
   <si>
     <t>24.15 (0.62%)</t>
   </si>
   <si>
-    <t>0.76 (-1.97%)</t>
-  </si>
-  <si>
-    <t>0.82 (-0.91%)</t>
-  </si>
-  <si>
-    <t>11.98 (-0.17%)</t>
-  </si>
-  <si>
-    <t>31.58 (0.57%)</t>
-  </si>
-  <si>
-    <t>11.94 (1.31%)</t>
-  </si>
-  <si>
-    <t>84.07 (0.45%)</t>
-  </si>
-  <si>
-    <t>130.16 (-0.90%)</t>
-  </si>
-  <si>
-    <t>51.45 (-0.16%)</t>
-  </si>
-  <si>
-    <t>36.30 (0.14%)</t>
-  </si>
-  <si>
-    <t>10.60 (0.47%)</t>
-  </si>
-  <si>
-    <t>85.23 (-3.89%)</t>
-  </si>
-  <si>
-    <t>3.25 (-1.52%)</t>
-  </si>
-  <si>
-    <t>4.67 (-0.64%)</t>
-  </si>
-  <si>
-    <t>15.20 (-0.65%)</t>
-  </si>
-  <si>
-    <t>0.93</t>
+    <t>6.13 (-0.97%)</t>
+  </si>
+  <si>
+    <t>23.94 (0.59%)</t>
+  </si>
+  <si>
+    <t>5.84 (1.66%)</t>
+  </si>
+  <si>
+    <t>12.23 (1.66%)</t>
+  </si>
+  <si>
+    <t>27.48 (0.00%)</t>
+  </si>
+  <si>
+    <t>17.83 (0.14%)</t>
+  </si>
+  <si>
+    <t>60.90 (0.25%)</t>
+  </si>
+  <si>
+    <t>21.15 (1.20%)</t>
+  </si>
+  <si>
+    <t>62.97 (0.19%)</t>
+  </si>
+  <si>
+    <t>7.49 (0.00%)</t>
+  </si>
+  <si>
+    <t>32.25 (-0.62%)</t>
+  </si>
+  <si>
+    <t>10.55 (0.00%)</t>
+  </si>
+  <si>
+    <t>3.15 (-1.56%)</t>
+  </si>
+  <si>
+    <t>53.10 (-0.81%)</t>
+  </si>
+  <si>
+    <t>31.10 (0.29%)</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>0.83</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>3.12</t>
+    <t>0.80</t>
   </si>
   <si>
     <t>0.67</t>
   </si>
   <si>
-    <t>-0.28</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>0.20</t>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.62</t>
   </si>
   <si>
     <t>0.28</t>
   </si>
   <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>57.79M</t>
-  </si>
-  <si>
-    <t>486.58M</t>
-  </si>
-  <si>
-    <t>21.52M</t>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>24.02M</t>
+  </si>
+  <si>
+    <t>49.68M</t>
+  </si>
+  <si>
+    <t>67.35M</t>
+  </si>
+  <si>
+    <t>28.67M</t>
   </si>
   <si>
     <t>31.98M</t>
   </si>
   <si>
-    <t>38.17M</t>
-  </si>
-  <si>
-    <t>51.74M</t>
-  </si>
-  <si>
-    <t>4.17M</t>
-  </si>
-  <si>
-    <t>58.84M</t>
-  </si>
-  <si>
-    <t>188.62M</t>
-  </si>
-  <si>
-    <t>27.22M</t>
-  </si>
-  <si>
-    <t>42.37M</t>
-  </si>
-  <si>
-    <t>18.37M</t>
-  </si>
-  <si>
-    <t>11.86M</t>
+    <t>74.18M</t>
+  </si>
+  <si>
+    <t>16.96M</t>
+  </si>
+  <si>
+    <t>86.45M</t>
+  </si>
+  <si>
+    <t>24.31M</t>
+  </si>
+  <si>
+    <t>29.20M</t>
+  </si>
+  <si>
+    <t>36.94M</t>
+  </si>
+  <si>
+    <t>32.74M</t>
+  </si>
+  <si>
+    <t>10.70M</t>
+  </si>
+  <si>
+    <t>50.53M</t>
+  </si>
+  <si>
+    <t>29.17M</t>
+  </si>
+  <si>
+    <t>16.27M</t>
   </si>
   <si>
     <t>23.89M</t>
   </si>
   <si>
-    <t>65.70M</t>
-  </si>
-  <si>
-    <t>6.21M</t>
-  </si>
-  <si>
-    <t>26.06M</t>
-  </si>
-  <si>
-    <t>27.28M</t>
-  </si>
-  <si>
-    <t>235.91K</t>
-  </si>
-  <si>
-    <t>1.32M</t>
-  </si>
-  <si>
-    <t>13.69K</t>
+    <t>50.99M</t>
+  </si>
+  <si>
+    <t>11.93M</t>
+  </si>
+  <si>
+    <t>48.34M</t>
+  </si>
+  <si>
+    <t>106.44K</t>
+  </si>
+  <si>
+    <t>321.48K</t>
+  </si>
+  <si>
+    <t>2.42M</t>
+  </si>
+  <si>
+    <t>76.93K</t>
   </si>
   <si>
     <t>104.72K</t>
   </si>
   <si>
-    <t>97.56K</t>
-  </si>
-  <si>
-    <t>58.87K</t>
-  </si>
-  <si>
-    <t>2.28K</t>
-  </si>
-  <si>
-    <t>269.55K</t>
-  </si>
-  <si>
-    <t>2.00M</t>
-  </si>
-  <si>
-    <t>538.94K</t>
-  </si>
-  <si>
-    <t>91.69K</t>
-  </si>
-  <si>
-    <t>53.21K</t>
-  </si>
-  <si>
-    <t>51.55K</t>
+    <t>278.68K</t>
+  </si>
+  <si>
+    <t>19.08K</t>
+  </si>
+  <si>
+    <t>554.25K</t>
+  </si>
+  <si>
+    <t>94.84K</t>
+  </si>
+  <si>
+    <t>115.70K</t>
+  </si>
+  <si>
+    <t>191.59K</t>
+  </si>
+  <si>
+    <t>36.63K</t>
+  </si>
+  <si>
+    <t>35.76K</t>
+  </si>
+  <si>
+    <t>183.13K</t>
+  </si>
+  <si>
+    <t>91.61K</t>
+  </si>
+  <si>
+    <t>106.27K</t>
   </si>
   <si>
     <t>110.25K</t>
   </si>
   <si>
-    <t>863.64K</t>
-  </si>
-  <si>
-    <t>17.32K</t>
-  </si>
-  <si>
-    <t>181.25K</t>
-  </si>
-  <si>
-    <t>25.37K</t>
-  </si>
-  <si>
-    <t>90,627</t>
-  </si>
-  <si>
-    <t>342,986</t>
-  </si>
-  <si>
-    <t>1,403</t>
-  </si>
-  <si>
-    <t>36,294</t>
-  </si>
-  <si>
-    <t>11,115</t>
-  </si>
-  <si>
-    <t>20,741</t>
-  </si>
-  <si>
-    <t>2,326</t>
-  </si>
-  <si>
-    <t>38,872</t>
-  </si>
-  <si>
-    <t>329,630</t>
-  </si>
-  <si>
-    <t>102,575</t>
-  </si>
-  <si>
-    <t>8,859</t>
-  </si>
-  <si>
-    <t>26,409</t>
-  </si>
-  <si>
-    <t>14,074</t>
-  </si>
-  <si>
-    <t>5,744</t>
-  </si>
-  <si>
-    <t>625,194</t>
-  </si>
-  <si>
-    <t>1,654</t>
-  </si>
-  <si>
-    <t>16,897</t>
-  </si>
-  <si>
-    <t>22,958</t>
-  </si>
-  <si>
-    <t>88.75</t>
-  </si>
-  <si>
-    <t>52.85</t>
-  </si>
-  <si>
-    <t>31.50</t>
+    <t>160.16K</t>
+  </si>
+  <si>
+    <t>98.56K</t>
+  </si>
+  <si>
+    <t>128.97K</t>
+  </si>
+  <si>
+    <t>38,463</t>
+  </si>
+  <si>
+    <t>281,286</t>
+  </si>
+  <si>
+    <t>1,023,053</t>
+  </si>
+  <si>
+    <t>25,446</t>
+  </si>
+  <si>
+    <t>46,689</t>
+  </si>
+  <si>
+    <t>151,087</t>
+  </si>
+  <si>
+    <t>2,624</t>
+  </si>
+  <si>
+    <t>169,418</t>
+  </si>
+  <si>
+    <t>45,563</t>
+  </si>
+  <si>
+    <t>29,490</t>
+  </si>
+  <si>
+    <t>39,768</t>
+  </si>
+  <si>
+    <t>46,675</t>
+  </si>
+  <si>
+    <t>6,341</t>
+  </si>
+  <si>
+    <t>62,518</t>
+  </si>
+  <si>
+    <t>47,485</t>
+  </si>
+  <si>
+    <t>25,804</t>
+  </si>
+  <si>
+    <t>13,696</t>
+  </si>
+  <si>
+    <t>63,448</t>
+  </si>
+  <si>
+    <t>15,137</t>
+  </si>
+  <si>
+    <t>107,435</t>
+  </si>
+  <si>
+    <t>35.50</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.83</t>
+  </si>
+  <si>
+    <t>17.00</t>
   </si>
   <si>
     <t>33.17</t>
   </si>
   <si>
-    <t>2.00</t>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>20.40</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>64.50</t>
+  </si>
+  <si>
+    <t>12.38</t>
+  </si>
+  <si>
+    <t>44.20</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>36.14</t>
+  </si>
+  <si>
+    <t>-11.93%</t>
+  </si>
+  <si>
+    <t>-15.49%</t>
+  </si>
+  <si>
+    <t>-33.97%</t>
+  </si>
+  <si>
+    <t>-45.49%</t>
+  </si>
+  <si>
+    <t>-23.09%</t>
+  </si>
+  <si>
+    <t>-25.70%</t>
+  </si>
+  <si>
+    <t>-9.66%</t>
+  </si>
+  <si>
+    <t>-34.38%</t>
+  </si>
+  <si>
+    <t>-34.67%</t>
+  </si>
+  <si>
+    <t>-17.10%</t>
+  </si>
+  <si>
+    <t>-21.30%</t>
+  </si>
+  <si>
+    <t>-7.31%</t>
+  </si>
+  <si>
+    <t>-48.32%</t>
+  </si>
+  <si>
+    <t>-6.11%</t>
+  </si>
+  <si>
+    <t>-23.96%</t>
+  </si>
+  <si>
+    <t>-30.12%</t>
+  </si>
+  <si>
+    <t>-28.47%</t>
+  </si>
+  <si>
+    <t>-42.73%</t>
+  </si>
+  <si>
+    <t>-28.92%</t>
+  </si>
+  <si>
+    <t>-6.47%</t>
+  </si>
+  <si>
+    <t>89.42%</t>
+  </si>
+  <si>
+    <t>27.33%</t>
+  </si>
+  <si>
+    <t>68.79%</t>
+  </si>
+  <si>
+    <t>27.09%</t>
+  </si>
+  <si>
+    <t>10.78%</t>
+  </si>
+  <si>
+    <t>8.88%</t>
+  </si>
+  <si>
+    <t>14.44%</t>
+  </si>
+  <si>
+    <t>245.59%</t>
+  </si>
+  <si>
+    <t>2.34%</t>
+  </si>
+  <si>
+    <t>1.07%</t>
+  </si>
+  <si>
+    <t>4.24%</t>
+  </si>
+  <si>
+    <t>19.88%</t>
+  </si>
+  <si>
+    <t>1.20%</t>
+  </si>
+  <si>
+    <t>24.23%</t>
+  </si>
+  <si>
+    <t>10.96%</t>
+  </si>
+  <si>
+    <t>73.39%</t>
+  </si>
+  <si>
+    <t>19.21%</t>
+  </si>
+  <si>
+    <t>3.28%</t>
+  </si>
+  <si>
+    <t>7.81%</t>
+  </si>
+  <si>
+    <t>9.74%</t>
+  </si>
+  <si>
+    <t>-7.19%</t>
+  </si>
+  <si>
+    <t>-7.66%</t>
+  </si>
+  <si>
+    <t>-15.83%</t>
+  </si>
+  <si>
+    <t>-7.96%</t>
+  </si>
+  <si>
+    <t>-2.24%</t>
+  </si>
+  <si>
+    <t>-8.72%</t>
+  </si>
+  <si>
+    <t>-1.66%</t>
+  </si>
+  <si>
+    <t>-14.70%</t>
+  </si>
+  <si>
+    <t>-10.79%</t>
+  </si>
+  <si>
+    <t>-2.98%</t>
+  </si>
+  <si>
+    <t>-1.70%</t>
+  </si>
+  <si>
+    <t>-3.40%</t>
+  </si>
+  <si>
+    <t>-6.94%</t>
+  </si>
+  <si>
+    <t>-3.85%</t>
+  </si>
+  <si>
+    <t>-4.21%</t>
+  </si>
+  <si>
+    <t>-5.62%</t>
+  </si>
+  <si>
+    <t>-6.45%</t>
+  </si>
+  <si>
+    <t>-13.70%</t>
+  </si>
+  <si>
+    <t>-5.51%</t>
+  </si>
+  <si>
+    <t>-2.19%</t>
+  </si>
+  <si>
+    <t>-6.09%</t>
+  </si>
+  <si>
+    <t>-9.46%</t>
+  </si>
+  <si>
+    <t>-20.73%</t>
+  </si>
+  <si>
+    <t>-6.35%</t>
+  </si>
+  <si>
+    <t>-3.10%</t>
+  </si>
+  <si>
+    <t>-10.63%</t>
+  </si>
+  <si>
+    <t>-2.38%</t>
+  </si>
+  <si>
+    <t>-18.25%</t>
+  </si>
+  <si>
+    <t>-12.28%</t>
+  </si>
+  <si>
+    <t>-3.31%</t>
+  </si>
+  <si>
+    <t>-3.64%</t>
+  </si>
+  <si>
+    <t>-2.95%</t>
+  </si>
+  <si>
+    <t>-11.63%</t>
+  </si>
+  <si>
+    <t>-2.01%</t>
+  </si>
+  <si>
+    <t>-6.39%</t>
+  </si>
+  <si>
+    <t>-16.65%</t>
+  </si>
+  <si>
+    <t>-14.16%</t>
+  </si>
+  <si>
+    <t>-16.30%</t>
+  </si>
+  <si>
+    <t>-13.66%</t>
+  </si>
+  <si>
+    <t>11.89%</t>
+  </si>
+  <si>
+    <t>1.98%</t>
+  </si>
+  <si>
+    <t>-16.23%</t>
+  </si>
+  <si>
+    <t>-8.43%</t>
+  </si>
+  <si>
+    <t>-10.86%</t>
+  </si>
+  <si>
+    <t>-7.91%</t>
+  </si>
+  <si>
+    <t>-1.37%</t>
+  </si>
+  <si>
+    <t>4.14%</t>
+  </si>
+  <si>
+    <t>-20.74%</t>
+  </si>
+  <si>
+    <t>-6.28%</t>
+  </si>
+  <si>
+    <t>-8.46%</t>
+  </si>
+  <si>
+    <t>4.92%</t>
+  </si>
+  <si>
+    <t>-29.28%</t>
+  </si>
+  <si>
+    <t>7.98%</t>
+  </si>
+  <si>
+    <t>-11.01%</t>
+  </si>
+  <si>
+    <t>-20.20%</t>
+  </si>
+  <si>
+    <t>-17.40%</t>
+  </si>
+  <si>
+    <t>-15.82%</t>
+  </si>
+  <si>
+    <t>-0.46%</t>
+  </si>
+  <si>
+    <t>5.40%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>22.60%</t>
+  </si>
+  <si>
+    <t>17.60%</t>
+  </si>
+  <si>
+    <t>3.40%</t>
+  </si>
+  <si>
+    <t>23.60%</t>
+  </si>
+  <si>
+    <t>25.60%</t>
+  </si>
+  <si>
+    <t>37.00%</t>
+  </si>
+  <si>
+    <t>2.80%</t>
+  </si>
+  <si>
+    <t>53.50%</t>
+  </si>
+  <si>
+    <t>2.20%</t>
+  </si>
+  <si>
+    <t>8.00%</t>
+  </si>
+  <si>
+    <t>-11.20%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>28.60%</t>
+  </si>
+  <si>
+    <t>0.76</t>
   </si>
   <si>
     <t>2.50</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>41.38</t>
-  </si>
-  <si>
-    <t>20.83</t>
-  </si>
-  <si>
-    <t>99.86</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>17.50</t>
-  </si>
-  <si>
-    <t>105.38</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>17.83</t>
-  </si>
-  <si>
-    <t>-11.45%</t>
-  </si>
-  <si>
-    <t>-18.04%</t>
-  </si>
-  <si>
-    <t>-23.13%</t>
-  </si>
-  <si>
-    <t>-23.09%</t>
-  </si>
-  <si>
-    <t>-50.57%</t>
-  </si>
-  <si>
-    <t>-54.44%</t>
-  </si>
-  <si>
-    <t>-15.93%</t>
-  </si>
-  <si>
-    <t>-21.17%</t>
-  </si>
-  <si>
-    <t>-32.21%</t>
-  </si>
-  <si>
-    <t>-22.55%</t>
-  </si>
-  <si>
-    <t>-9.83%</t>
-  </si>
-  <si>
-    <t>-9.74%</t>
-  </si>
-  <si>
-    <t>-31.18%</t>
-  </si>
-  <si>
-    <t>-28.14%</t>
-  </si>
-  <si>
-    <t>-37.76%</t>
-  </si>
-  <si>
-    <t>-78.96%</t>
-  </si>
-  <si>
-    <t>-47.41%</t>
-  </si>
-  <si>
-    <t>-10.06%</t>
-  </si>
-  <si>
-    <t>10.72%</t>
-  </si>
-  <si>
-    <t>16.86%</t>
-  </si>
-  <si>
-    <t>0.96%</t>
-  </si>
-  <si>
-    <t>10.78%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>0.99%</t>
-  </si>
-  <si>
-    <t>40.77%</t>
-  </si>
-  <si>
-    <t>2.47%</t>
-  </si>
-  <si>
-    <t>3.24%</t>
-  </si>
-  <si>
-    <t>6.11%</t>
-  </si>
-  <si>
-    <t>59.28%</t>
-  </si>
-  <si>
-    <t>46.29%</t>
-  </si>
-  <si>
-    <t>1.11%</t>
-  </si>
-  <si>
-    <t>19.77%</t>
-  </si>
-  <si>
-    <t>4.13%</t>
-  </si>
-  <si>
-    <t>5.01%</t>
-  </si>
-  <si>
-    <t>12.80%</t>
-  </si>
-  <si>
-    <t>18.75%</t>
-  </si>
-  <si>
-    <t>-3.85%</t>
-  </si>
-  <si>
-    <t>-5.86%</t>
-  </si>
-  <si>
-    <t>-2.82%</t>
-  </si>
-  <si>
-    <t>-2.24%</t>
-  </si>
-  <si>
-    <t>-12.60%</t>
-  </si>
-  <si>
-    <t>-14.20%</t>
-  </si>
-  <si>
-    <t>-5.81%</t>
-  </si>
-  <si>
-    <t>-3.91%</t>
-  </si>
-  <si>
-    <t>-5.56%</t>
-  </si>
-  <si>
-    <t>-3.55%</t>
-  </si>
-  <si>
-    <t>-5.94%</t>
-  </si>
-  <si>
-    <t>-6.62%</t>
-  </si>
-  <si>
-    <t>-15.02%</t>
-  </si>
-  <si>
-    <t>-6.01%</t>
-  </si>
-  <si>
-    <t>-5.74%</t>
-  </si>
-  <si>
-    <t>-6.51%</t>
-  </si>
-  <si>
-    <t>-8.95%</t>
-  </si>
-  <si>
-    <t>-3.14%</t>
-  </si>
-  <si>
-    <t>-2.83%</t>
-  </si>
-  <si>
-    <t>-6.93%</t>
-  </si>
-  <si>
-    <t>-6.36%</t>
-  </si>
-  <si>
-    <t>-3.10%</t>
-  </si>
-  <si>
-    <t>-18.50%</t>
-  </si>
-  <si>
-    <t>-28.71%</t>
-  </si>
-  <si>
-    <t>-8.28%</t>
-  </si>
-  <si>
-    <t>-5.87%</t>
-  </si>
-  <si>
-    <t>-15.06%</t>
-  </si>
-  <si>
-    <t>-4.44%</t>
-  </si>
-  <si>
-    <t>-6.15%</t>
-  </si>
-  <si>
-    <t>-19.66%</t>
-  </si>
-  <si>
-    <t>-13.75%</t>
-  </si>
-  <si>
-    <t>-5.14%</t>
-  </si>
-  <si>
-    <t>-27.40%</t>
-  </si>
-  <si>
-    <t>-7.33%</t>
-  </si>
-  <si>
-    <t>-4.75%</t>
-  </si>
-  <si>
-    <t>-3.97%</t>
-  </si>
-  <si>
-    <t>-8.46%</t>
-  </si>
-  <si>
-    <t>-8.81%</t>
-  </si>
-  <si>
-    <t>-10.86%</t>
-  </si>
-  <si>
-    <t>-28.06%</t>
-  </si>
-  <si>
-    <t>-38.43%</t>
-  </si>
-  <si>
-    <t>5.79%</t>
-  </si>
-  <si>
-    <t>-10.59%</t>
-  </si>
-  <si>
-    <t>-18.93%</t>
-  </si>
-  <si>
-    <t>-5.51%</t>
-  </si>
-  <si>
-    <t>15.42%</t>
-  </si>
-  <si>
-    <t>8.32%</t>
-  </si>
-  <si>
-    <t>-13.28%</t>
-  </si>
-  <si>
-    <t>-19.83%</t>
-  </si>
-  <si>
-    <t>-19.85%</t>
-  </si>
-  <si>
-    <t>-54.39%</t>
-  </si>
-  <si>
-    <t>-27.05%</t>
-  </si>
-  <si>
-    <t>-0.33%</t>
+    <t>-1.97</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>15.70%</t>
+  </si>
+  <si>
+    <t>15.10%</t>
+  </si>
+  <si>
+    <t>8.10%</t>
+  </si>
+  <si>
+    <t>21.50%</t>
+  </si>
+  <si>
+    <t>-23.00%</t>
+  </si>
+  <si>
+    <t>14.00%</t>
+  </si>
+  <si>
+    <t>12.10%</t>
+  </si>
+  <si>
+    <t>7.50%</t>
   </si>
   <si>
     <t>3.10%</t>
@@ -793,397 +975,331 @@
     <t>22.50%</t>
   </si>
   <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>-39.90%</t>
+  </si>
+  <si>
+    <t>6.20%</t>
+  </si>
+  <si>
+    <t>0.80%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>-74.30%</t>
+  </si>
+  <si>
+    <t>5.60%</t>
+  </si>
+  <si>
+    <t>52.80%</t>
+  </si>
+  <si>
+    <t>81.60%</t>
+  </si>
+  <si>
+    <t>87.00%</t>
+  </si>
+  <si>
+    <t>88.20%</t>
+  </si>
+  <si>
+    <t>45.30%</t>
+  </si>
+  <si>
+    <t>127.90%</t>
+  </si>
+  <si>
+    <t>67.70%</t>
+  </si>
+  <si>
+    <t>-70.20%</t>
+  </si>
+  <si>
+    <t>-70.00%</t>
+  </si>
+  <si>
+    <t>17.50%</t>
+  </si>
+  <si>
+    <t>28.30%</t>
+  </si>
+  <si>
+    <t>-29.40%</t>
+  </si>
+  <si>
+    <t>-0.50%</t>
+  </si>
+  <si>
+    <t>-85.30%</t>
+  </si>
+  <si>
+    <t>65.80%</t>
+  </si>
+  <si>
+    <t>58.20%</t>
+  </si>
+  <si>
+    <t>-9.50%</t>
+  </si>
+  <si>
+    <t>18.80%</t>
+  </si>
+  <si>
+    <t>-13.80%</t>
+  </si>
+  <si>
+    <t>11.90%</t>
+  </si>
+  <si>
+    <t>-32.90%</t>
+  </si>
+  <si>
+    <t>38.90%</t>
+  </si>
+  <si>
+    <t>168.70%</t>
+  </si>
+  <si>
+    <t>25.80%</t>
+  </si>
+  <si>
+    <t>32.90%</t>
+  </si>
+  <si>
+    <t>7.10%</t>
+  </si>
+  <si>
+    <t>4.50%</t>
+  </si>
+  <si>
+    <t>10.60%</t>
+  </si>
+  <si>
+    <t>-6.70%</t>
+  </si>
+  <si>
     <t>3.30%</t>
   </si>
   <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>-6.40%</t>
-  </si>
-  <si>
-    <t>-2.60%</t>
-  </si>
-  <si>
-    <t>13.20%</t>
-  </si>
-  <si>
-    <t>13.10%</t>
-  </si>
-  <si>
-    <t>16.20%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>4.90%</t>
-  </si>
-  <si>
-    <t>2.70%</t>
-  </si>
-  <si>
-    <t>-49.10%</t>
-  </si>
-  <si>
-    <t>-5.70%</t>
-  </si>
-  <si>
-    <t>31.60%</t>
-  </si>
-  <si>
-    <t>5.01</t>
-  </si>
-  <si>
-    <t>1.86</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>-0.27</t>
-  </si>
-  <si>
-    <t>-0.85</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>-0.83</t>
-  </si>
-  <si>
-    <t>4.52</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>8.83</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>5.90%</t>
-  </si>
-  <si>
-    <t>0.70%</t>
-  </si>
-  <si>
-    <t>21.50%</t>
-  </si>
-  <si>
-    <t>0.90%</t>
-  </si>
-  <si>
-    <t>-2.00%</t>
-  </si>
-  <si>
-    <t>29.50%</t>
-  </si>
-  <si>
-    <t>195.80%</t>
-  </si>
-  <si>
-    <t>-23.60%</t>
-  </si>
-  <si>
-    <t>10.10%</t>
-  </si>
-  <si>
-    <t>29.30%</t>
-  </si>
-  <si>
-    <t>7.90%</t>
-  </si>
-  <si>
-    <t>9.30%</t>
-  </si>
-  <si>
-    <t>-23.50%</t>
-  </si>
-  <si>
-    <t>12.50%</t>
-  </si>
-  <si>
-    <t>27.50%</t>
-  </si>
-  <si>
-    <t>-6.20%</t>
-  </si>
-  <si>
-    <t>-189.70%</t>
-  </si>
-  <si>
-    <t>127.90%</t>
-  </si>
-  <si>
-    <t>6.60%</t>
-  </si>
-  <si>
-    <t>-218.20%</t>
-  </si>
-  <si>
-    <t>-29.90%</t>
-  </si>
-  <si>
-    <t>21.70%</t>
-  </si>
-  <si>
-    <t>2.60%</t>
-  </si>
-  <si>
-    <t>64.60%</t>
-  </si>
-  <si>
-    <t>-9.10%</t>
-  </si>
-  <si>
-    <t>88.40%</t>
-  </si>
-  <si>
-    <t>10.40%</t>
-  </si>
-  <si>
-    <t>58.20%</t>
-  </si>
-  <si>
-    <t>26.10%</t>
-  </si>
-  <si>
-    <t>23.20%</t>
-  </si>
-  <si>
-    <t>-361.10%</t>
-  </si>
-  <si>
-    <t>39.10%</t>
-  </si>
-  <si>
-    <t>6.80%</t>
-  </si>
-  <si>
-    <t>7.50%</t>
-  </si>
-  <si>
-    <t>-5.60%</t>
-  </si>
-  <si>
-    <t>-32.70%</t>
-  </si>
-  <si>
-    <t>5.10%</t>
-  </si>
-  <si>
-    <t>23.00%</t>
-  </si>
-  <si>
-    <t>-11.80%</t>
-  </si>
-  <si>
-    <t>24.20%</t>
-  </si>
-  <si>
-    <t>7.00%</t>
-  </si>
-  <si>
-    <t>-17.20%</t>
-  </si>
-  <si>
-    <t>26.40%</t>
+    <t>-19.60%</t>
+  </si>
+  <si>
+    <t>-14.60%</t>
   </si>
   <si>
     <t>35.50%</t>
   </si>
   <si>
-    <t>22.80%</t>
-  </si>
-  <si>
-    <t>33.20%</t>
-  </si>
-  <si>
-    <t>-10.69%</t>
-  </si>
-  <si>
-    <t>10.90%</t>
-  </si>
-  <si>
-    <t>21.58</t>
-  </si>
-  <si>
-    <t>32.25</t>
-  </si>
-  <si>
-    <t>41.07</t>
+    <t>-18.40%</t>
+  </si>
+  <si>
+    <t>16.40%</t>
+  </si>
+  <si>
+    <t>20.40%</t>
+  </si>
+  <si>
+    <t>26.49</t>
+  </si>
+  <si>
+    <t>22.47</t>
+  </si>
+  <si>
+    <t>23.34</t>
   </si>
   <si>
     <t>15.23</t>
   </si>
   <si>
-    <t>29.34</t>
-  </si>
-  <si>
-    <t>11.39</t>
-  </si>
-  <si>
-    <t>16.49</t>
-  </si>
-  <si>
-    <t>38.58</t>
-  </si>
-  <si>
-    <t>27.05</t>
-  </si>
-  <si>
-    <t>12.78</t>
+    <t>19.92</t>
+  </si>
+  <si>
+    <t>25.49</t>
+  </si>
+  <si>
+    <t>16.09</t>
+  </si>
+  <si>
+    <t>11.34</t>
+  </si>
+  <si>
+    <t>15.04</t>
+  </si>
+  <si>
+    <t>21.13</t>
+  </si>
+  <si>
+    <t>26.62</t>
   </si>
   <si>
     <t>39.81</t>
   </si>
   <si>
-    <t>11.53</t>
-  </si>
-  <si>
-    <t>14.80</t>
-  </si>
-  <si>
-    <t>14.99</t>
-  </si>
-  <si>
-    <t>26.18</t>
-  </si>
-  <si>
-    <t>17.30</t>
+    <t>46.35</t>
+  </si>
+  <si>
+    <t>17.47</t>
+  </si>
+  <si>
+    <t>43.36</t>
+  </si>
+  <si>
+    <t>13.08</t>
+  </si>
+  <si>
+    <t>19.62</t>
   </si>
   <si>
     <t>9.95</t>
   </si>
   <si>
-    <t>8.80</t>
-  </si>
-  <si>
-    <t>18.53</t>
-  </si>
-  <si>
-    <t>9.80</t>
-  </si>
-  <si>
-    <t>10.04</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>12.17</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>7.19</t>
-  </si>
-  <si>
-    <t>0.79</t>
+    <t>137.56</t>
+  </si>
+  <si>
+    <t>15.30</t>
+  </si>
+  <si>
+    <t>7.81</t>
+  </si>
+  <si>
+    <t>13.49</t>
+  </si>
+  <si>
+    <t>13.28</t>
+  </si>
+  <si>
+    <t>16.20</t>
+  </si>
+  <si>
+    <t>19.45</t>
+  </si>
+  <si>
+    <t>12.63</t>
+  </si>
+  <si>
+    <t>18.82</t>
+  </si>
+  <si>
+    <t>9.21</t>
+  </si>
+  <si>
+    <t>13.25</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>0.36</t>
   </si>
   <si>
     <t>3.84</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>34.97</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>5.74</t>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>7.26</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>8.88</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.77</t>
   </si>
   <si>
     <t>630.10</t>
   </si>
   <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>4.89</t>
-  </si>
-  <si>
-    <t>24.28</t>
-  </si>
-  <si>
-    <t>12.90</t>
-  </si>
-  <si>
-    <t>33.36</t>
-  </si>
-  <si>
-    <t>150.86</t>
-  </si>
-  <si>
-    <t>33.16</t>
-  </si>
-  <si>
-    <t>20.77</t>
-  </si>
-  <si>
-    <t>18.73</t>
-  </si>
-  <si>
-    <t>42.24</t>
-  </si>
-  <si>
-    <t>16.70</t>
-  </si>
-  <si>
-    <t>0.43%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>3.59%</t>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>5.51</t>
+  </si>
+  <si>
+    <t>18.38</t>
+  </si>
+  <si>
+    <t>12.72</t>
+  </si>
+  <si>
+    <t>4.43</t>
+  </si>
+  <si>
+    <t>53.39</t>
+  </si>
+  <si>
+    <t>13.07</t>
+  </si>
+  <si>
+    <t>23.74</t>
+  </si>
+  <si>
+    <t>38.18</t>
+  </si>
+  <si>
+    <t>53.25</t>
+  </si>
+  <si>
+    <t>24.35</t>
+  </si>
+  <si>
+    <t>13.71</t>
+  </si>
+  <si>
+    <t>11.59</t>
+  </si>
+  <si>
+    <t>8.51</t>
+  </si>
+  <si>
+    <t>1.22%</t>
+  </si>
+  <si>
+    <t>4.16%</t>
   </si>
   <si>
     <t>1.25%</t>
   </si>
   <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>0.76%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>2.28%</t>
-  </si>
-  <si>
-    <t>4.26%</t>
-  </si>
-  <si>
-    <t>2.09%</t>
+    <t>1.51%</t>
+  </si>
+  <si>
+    <t>3.06%</t>
+  </si>
+  <si>
+    <t>3.15%</t>
+  </si>
+  <si>
+    <t>2.39%</t>
+  </si>
+  <si>
+    <t>2.42%</t>
+  </si>
+  <si>
+    <t>2.58%</t>
   </si>
 </sst>
 </file>
@@ -1722,10 +1838,10 @@
     </font>
     <font/>
     <font>
-      <color rgb="0000FF00"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2136,7 +2252,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -2172,13 +2288,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="107" t="n">
-        <v>75.33</v>
+        <v>32.41</v>
       </c>
       <c r="C4" s="108" t="n">
-        <v>0.22</v>
+        <v>-1.25</v>
       </c>
       <c r="D4" s="107" t="n">
-        <v>0.93</v>
+        <v>30.96</v>
       </c>
       <c r="E4" s="107" t="s">
         <v>8</v>
@@ -2194,60 +2310,60 @@
         <v>10</v>
       </c>
       <c r="B5" s="107" t="n">
-        <v>48.83</v>
-      </c>
-      <c r="C5" s="108" t="n">
-        <v>0.39</v>
+        <v>33.22</v>
+      </c>
+      <c r="C5" s="109" t="n">
+        <v>1.62</v>
       </c>
       <c r="D5" s="107" t="n">
-        <v>0.83</v>
+        <v>31.95</v>
       </c>
       <c r="E5" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="107" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="107" t="n"/>
       <c r="H5" s="107" t="n"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="107" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C6" s="109" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D6" s="107" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="E6" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="107" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="C6" s="108" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D6" s="107" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E6" s="107" t="s">
+      <c r="F6" s="107" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="107" t="s">
-        <v>15</v>
       </c>
       <c r="G6" s="107" t="n"/>
       <c r="H6" s="107" t="n"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="107" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="C7" s="108" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="D7" s="107" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="E7" s="107" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="107" t="n">
-        <v>24.15</v>
-      </c>
-      <c r="C7" s="108" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D7" s="107" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E7" s="107" t="s">
-        <v>14</v>
       </c>
       <c r="F7" s="107" t="s">
         <v>17</v>
@@ -2260,13 +2376,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="107" t="n">
-        <v>0.76</v>
+        <v>24.15</v>
       </c>
       <c r="C8" s="109" t="n">
-        <v>-1.97</v>
+        <v>0.62</v>
       </c>
       <c r="D8" s="107" t="n">
-        <v>3.12</v>
+        <v>38.73</v>
       </c>
       <c r="E8" s="107" t="s">
         <v>19</v>
@@ -2282,304 +2398,328 @@
         <v>21</v>
       </c>
       <c r="B9" s="107" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C9" s="109" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="D9" s="107" t="n">
-        <v>0.67</v>
+        <v>6.13</v>
+      </c>
+      <c r="C9" s="108" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="D9" s="109" t="n">
+        <v>24.44</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F9" s="107" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G9" s="107" t="n"/>
       <c r="H9" s="107" t="n"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="107" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="107" t="n">
-        <v>11.98</v>
+        <v>23.94</v>
       </c>
       <c r="C10" s="109" t="n">
-        <v>-0.17</v>
+        <v>0.59</v>
       </c>
       <c r="D10" s="107" t="n">
-        <v>-0.28</v>
+        <v>39.86</v>
       </c>
       <c r="E10" s="107" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F10" s="107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="107" t="n"/>
       <c r="H10" s="107" t="n"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="107" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="107" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="C11" s="108" t="n">
-        <v>0.57</v>
+        <v>5.84</v>
+      </c>
+      <c r="C11" s="109" t="n">
+        <v>1.66</v>
       </c>
       <c r="D11" s="107" t="n">
-        <v>0.99</v>
+        <v>32.49</v>
       </c>
       <c r="E11" s="107" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G11" s="107" t="n"/>
       <c r="H11" s="107" t="n"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="107" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="107" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C12" s="108" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D12" s="107" t="n">
-        <v>1.32</v>
+        <v>12.23</v>
+      </c>
+      <c r="C12" s="109" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D12" s="109" t="n">
+        <v>28.68</v>
       </c>
       <c r="E12" s="107" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="107" t="n"/>
       <c r="H12" s="107" t="n"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="107" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="107" t="n">
-        <v>84.06999999999999</v>
-      </c>
-      <c r="C13" s="108" t="n">
-        <v>0.45</v>
+        <v>27.48</v>
+      </c>
+      <c r="C13" s="109" t="n">
+        <v>0</v>
       </c>
       <c r="D13" s="107" t="n">
-        <v>0.45</v>
+        <v>33.65</v>
       </c>
       <c r="E13" s="107" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="107" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="107" t="n"/>
       <c r="H13" s="107" t="n"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="107" t="n">
-        <v>130.16</v>
+        <v>17.83</v>
       </c>
       <c r="C14" s="109" t="n">
-        <v>-0.9</v>
+        <v>0.14</v>
       </c>
       <c r="D14" s="107" t="n">
-        <v>0.8100000000000001</v>
+        <v>36.81</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" s="107" t="n"/>
       <c r="H14" s="107" t="n"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="107" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="107" t="n">
-        <v>51.45</v>
+        <v>60.9</v>
       </c>
       <c r="C15" s="109" t="n">
-        <v>-0.16</v>
+        <v>0.25</v>
       </c>
       <c r="D15" s="107" t="n">
-        <v>1.79</v>
+        <v>30.5</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" s="107" t="n"/>
       <c r="H15" s="107" t="n"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="107" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="107" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C16" s="108" t="n">
-        <v>0.14</v>
+        <v>21.15</v>
+      </c>
+      <c r="C16" s="109" t="n">
+        <v>1.2</v>
       </c>
       <c r="D16" s="107" t="n">
-        <v>0.2</v>
+        <v>37.52</v>
       </c>
       <c r="E16" s="107" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" s="107" t="n"/>
       <c r="H16" s="107" t="n"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="107" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="107" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C17" s="108" t="n">
-        <v>0.47</v>
+        <v>62.97</v>
+      </c>
+      <c r="C17" s="109" t="n">
+        <v>0.19</v>
       </c>
       <c r="D17" s="107" t="n">
-        <v>0.28</v>
+        <v>34.31</v>
       </c>
       <c r="E17" s="107" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G17" s="107" t="n"/>
       <c r="H17" s="107" t="n"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B18" s="107" t="n">
-        <v>85.23</v>
+        <v>7.49</v>
       </c>
       <c r="C18" s="109" t="n">
-        <v>-3.89</v>
+        <v>0</v>
       </c>
       <c r="D18" s="107" t="n">
-        <v>1.17</v>
+        <v>36.22</v>
       </c>
       <c r="E18" s="107" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G18" s="107" t="n"/>
       <c r="H18" s="107" t="n"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" s="107" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="C19" s="109" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="D19" s="107" t="n">
-        <v>1.29</v>
+        <v>32.25</v>
+      </c>
+      <c r="C19" s="108" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="D19" s="109" t="n">
+        <v>25.73</v>
       </c>
       <c r="E19" s="107" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F19" s="107" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G19" s="107" t="n"/>
       <c r="H19" s="107" t="n"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="107" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" s="107" t="n">
-        <v>4.67</v>
+        <v>10.55</v>
       </c>
       <c r="C20" s="109" t="n">
-        <v>-0.64</v>
+        <v>0</v>
       </c>
       <c r="D20" s="107" t="n">
-        <v>1.46</v>
+        <v>37.95</v>
       </c>
       <c r="E20" s="107" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" s="107" t="n"/>
       <c r="H20" s="107" t="n"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="107" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="107" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C21" s="109" t="n">
-        <v>-0.65</v>
+        <v>3.15</v>
+      </c>
+      <c r="C21" s="108" t="n">
+        <v>-1.56</v>
       </c>
       <c r="D21" s="107" t="n">
-        <v>0.43</v>
+        <v>31.33</v>
       </c>
       <c r="E21" s="107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="107" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G21" s="107" t="n"/>
       <c r="H21" s="107" t="n"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="107" t="n"/>
-      <c r="B22" s="107" t="n"/>
-      <c r="C22" s="107" t="n"/>
-      <c r="D22" s="107" t="n"/>
-      <c r="E22" s="107" t="n"/>
-      <c r="F22" s="107" t="n"/>
+      <c r="A22" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="107" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C22" s="108" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="D22" s="109" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="E22" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="107" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="107" t="n"/>
       <c r="H22" s="107" t="n"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="107" t="n"/>
-      <c r="B23" s="107" t="n"/>
-      <c r="C23" s="107" t="n"/>
-      <c r="D23" s="107" t="n"/>
-      <c r="E23" s="107" t="n"/>
-      <c r="F23" s="107" t="n"/>
+      <c r="A23" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="107" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C23" s="109" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D23" s="107" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E23" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="107" t="s">
+        <v>37</v>
+      </c>
       <c r="G23" s="107" t="n"/>
       <c r="H23" s="107" t="n"/>
     </row>
@@ -2715,7 +2855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2725,10 +2865,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2736,7 +2876,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2744,23 +2884,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2768,7 +2908,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2776,103 +2916,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>177</v>
+      <c r="B21" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2886,7 +3042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2896,10 +3052,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2907,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2915,23 +3071,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2939,7 +3095,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2947,103 +3103,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>195</v>
+      <c r="B21" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3057,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -3067,10 +3239,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3078,7 +3250,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3086,23 +3258,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3110,7 +3282,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3118,103 +3290,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>213</v>
+      <c r="B21" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -3238,10 +3426,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3249,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3257,23 +3445,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3281,7 +3469,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3289,103 +3477,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>230</v>
+      <c r="B21" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3399,7 +3603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -3409,10 +3613,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3420,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3428,23 +3632,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3452,7 +3656,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3460,103 +3664,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>248</v>
+      <c r="B21" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -3580,10 +3800,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3591,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3599,23 +3819,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3623,7 +3843,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3631,103 +3851,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>263</v>
+      <c r="B21" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3741,7 +3977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -3751,10 +3987,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3762,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3770,23 +4006,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3794,7 +4030,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3802,103 +4038,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>276</v>
+      <c r="B21" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3912,7 +4164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -3922,10 +4174,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3933,7 +4185,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3941,23 +4193,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3965,7 +4217,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3973,103 +4225,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>290</v>
+      <c r="B21" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -4093,10 +4361,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4104,7 +4372,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4112,23 +4380,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4136,7 +4404,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4144,103 +4412,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>308</v>
+      <c r="B21" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4254,7 +4538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -4264,10 +4548,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4275,7 +4559,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4283,23 +4567,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4307,7 +4591,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4315,103 +4599,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>324</v>
+      <c r="B21" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4457,10 +4757,10 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4468,13 +4768,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>75.33</v>
+        <v>32.41</v>
       </c>
       <c r="C2" s="108" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D2" s="86" t="n">
-        <v>0.93</v>
+        <v>-1.25</v>
+      </c>
+      <c r="D2" s="107" t="n">
+        <v>30.96</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>8</v>
@@ -4483,9 +4783,9 @@
         <v>9</v>
       </c>
       <c r="G2" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H2" s="108" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="88" t="n"/>
@@ -4496,78 +4796,78 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>48.83</v>
-      </c>
-      <c r="C3" s="108" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="D3" s="86" t="n">
-        <v>0.83</v>
+        <v>33.22</v>
+      </c>
+      <c r="C3" s="109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D3" s="107" t="n">
+        <v>31.95</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H3" s="108" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="88" t="n"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C4" s="109" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D4" s="107" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="C4" s="108" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D4" s="86" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H4" s="108" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="89" t="n"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="C5" s="108" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="D5" s="107" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="n">
-        <v>24.15</v>
-      </c>
-      <c r="C5" s="108" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H5" s="108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4576,13 +4876,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.76</v>
+        <v>24.15</v>
       </c>
       <c r="C6" s="109" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.12</v>
+        <v>0.62</v>
+      </c>
+      <c r="D6" s="107" t="n">
+        <v>38.73</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -4591,9 +4891,9 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H6" s="108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4602,348 +4902,392 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C7" s="109" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.67</v>
+        <v>6.13</v>
+      </c>
+      <c r="C7" s="108" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="D7" s="109" t="n">
+        <v>24.44</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H7" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>11.98</v>
+        <v>23.94</v>
       </c>
       <c r="C8" s="109" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.28</v>
+        <v>0.59</v>
+      </c>
+      <c r="D8" s="107" t="n">
+        <v>39.86</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H8" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="C9" s="108" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D9" s="87" t="n">
-        <v>0.99</v>
+        <v>5.84</v>
+      </c>
+      <c r="C9" s="109" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D9" s="107" t="n">
+        <v>32.49</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H9" s="108" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="88" t="n"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C10" s="108" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.32</v>
+        <v>12.23</v>
+      </c>
+      <c r="C10" s="109" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D10" s="109" t="n">
+        <v>28.68</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H10" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n">
-        <v>84.06999999999999</v>
-      </c>
-      <c r="C11" s="108" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.45</v>
+        <v>27.48</v>
+      </c>
+      <c r="C11" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="107" t="n">
+        <v>33.65</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H11" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>130.16</v>
+        <v>17.83</v>
       </c>
       <c r="C12" s="109" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.14</v>
+      </c>
+      <c r="D12" s="107" t="n">
+        <v>36.81</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H12" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>51.45</v>
+        <v>60.9</v>
       </c>
       <c r="C13" s="109" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.79</v>
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="107" t="n">
+        <v>30.5</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H13" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C14" s="108" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.2</v>
+        <v>21.15</v>
+      </c>
+      <c r="C14" s="109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="107" t="n">
+        <v>37.52</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H14" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C15" s="108" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.28</v>
+        <v>62.97</v>
+      </c>
+      <c r="C15" s="109" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D15" s="107" t="n">
+        <v>34.31</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H15" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>85.23</v>
+        <v>7.49</v>
       </c>
       <c r="C16" s="109" t="n">
-        <v>-3.89</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.17</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="107" t="n">
+        <v>36.22</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H16" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="C17" s="109" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.29</v>
+        <v>32.25</v>
+      </c>
+      <c r="C17" s="108" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="D17" s="109" t="n">
+        <v>25.73</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H17" s="108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="n">
-        <v>4.67</v>
+        <v>10.55</v>
       </c>
       <c r="C18" s="109" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="D18" s="86" t="n">
-        <v>1.46</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="107" t="n">
+        <v>37.95</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="109" t="n">
+        <v>51</v>
+      </c>
+      <c r="H18" s="108" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="88" t="n"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C19" s="108" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="D19" s="107" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C20" s="108" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="D20" s="109" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C19" s="109" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="109" t="n">
+      <c r="B21" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C21" s="109" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D21" s="107" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="108" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="C20" s="94" t="n"/>
-      <c r="H20" s="106" t="n"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="C21" s="94" t="n"/>
-      <c r="H21" s="105" t="n"/>
     </row>
     <row r="22" spans="1:10">
       <c r="C22" s="94" t="n"/>
@@ -9423,7 +9767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -9433,10 +9777,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9444,7 +9788,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9452,23 +9796,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9476,7 +9820,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9484,103 +9828,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>337</v>
+      <c r="B21" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -9594,20 +9954,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9615,7 +9975,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9623,23 +9983,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9647,7 +10007,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9655,103 +10015,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>347</v>
+      <c r="B21" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -9765,7 +10141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9775,10 +10151,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9786,7 +10162,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9794,23 +10170,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9818,7 +10194,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9826,103 +10202,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>362</v>
+      <c r="B21" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -9936,20 +10328,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9957,7 +10349,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9965,23 +10357,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9989,7 +10381,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9997,103 +10389,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>371</v>
+      <c r="B21" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -10107,20 +10515,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10128,7 +10536,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10136,23 +10544,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10160,7 +10568,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10168,124 +10576,122 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>381</v>
+      <c r="B21" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -10306,10 +10712,10 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -10317,7 +10723,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="97" t="n"/>
       <c r="D2" s="99" t="n"/>
@@ -10346,8 +10752,8 @@
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="108" t="s">
-        <v>55</v>
+      <c r="B3" s="109" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="97" t="n"/>
       <c r="D3" s="99" t="n"/>
@@ -10374,10 +10780,10 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="108" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="97" t="n"/>
       <c r="D4" s="99" t="n"/>
@@ -10404,10 +10810,10 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="97" t="n"/>
       <c r="D5" s="99" t="n"/>
@@ -10437,7 +10843,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="97" t="n"/>
       <c r="D6" s="99" t="n"/>
@@ -10466,8 +10872,8 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="109" t="s">
-        <v>59</v>
+      <c r="B7" s="108" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="97" t="n"/>
       <c r="D7" s="99" t="n"/>
@@ -10494,10 +10900,10 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="96" t="n"/>
       <c r="D8" s="100" t="n"/>
@@ -10524,10 +10930,10 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="108" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="97" t="n"/>
       <c r="D9" s="100" t="n"/>
@@ -10554,10 +10960,10 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="108" t="s">
-        <v>62</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>61</v>
       </c>
       <c r="C10" s="97" t="n"/>
       <c r="D10" s="99" t="n"/>
@@ -10584,10 +10990,10 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>63</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="97" t="n"/>
       <c r="D11" s="99" t="n"/>
@@ -10614,10 +11020,10 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="96" t="n"/>
       <c r="D12" s="99" t="n"/>
@@ -10644,10 +11050,10 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="97" t="n"/>
       <c r="D13" s="100" t="n"/>
@@ -10674,10 +11080,10 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>66</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="97" t="n"/>
       <c r="D14" s="99" t="n"/>
@@ -10704,10 +11110,10 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="108" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="96" t="n"/>
       <c r="D15" s="100" t="n"/>
@@ -10734,10 +11140,10 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="97" t="n"/>
       <c r="D16" s="99" t="n"/>
@@ -10764,10 +11170,10 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="109" t="s">
-        <v>69</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>68</v>
       </c>
       <c r="C17" s="97" t="n"/>
       <c r="D17" s="99" t="n"/>
@@ -10794,10 +11200,10 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="97" t="n"/>
       <c r="D18" s="99" t="n"/>
@@ -10824,10 +11230,10 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="109" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="B19" s="108" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="96" t="n"/>
       <c r="D19" s="100" t="n"/>
@@ -10853,7 +11259,12 @@
       <c r="X19" s="71" t="n"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="B20" s="90" t="n"/>
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="108" t="s">
+        <v>71</v>
+      </c>
       <c r="C20" s="97" t="n"/>
       <c r="D20" s="99" t="n"/>
       <c r="E20" s="103" t="n"/>
@@ -10878,7 +11289,12 @@
       <c r="X20" s="70" t="n"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="B21" s="90" t="n"/>
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>72</v>
+      </c>
       <c r="C21" s="96" t="n"/>
       <c r="D21" s="100" t="n"/>
       <c r="E21" s="102" t="n"/>
@@ -11455,10 +11871,10 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -11466,7 +11882,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="85" t="n"/>
       <c r="D2" s="85" t="n"/>
@@ -11496,7 +11912,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="85" t="n"/>
       <c r="D3" s="85" t="n"/>
@@ -11523,10 +11939,10 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="85" t="n"/>
       <c r="D4" s="85" t="n"/>
@@ -11553,10 +11969,10 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="85" t="n"/>
       <c r="D5" s="85" t="n"/>
@@ -11586,7 +12002,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="85" t="n"/>
       <c r="D6" s="85" t="n"/>
@@ -11616,7 +12032,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="85" t="n"/>
       <c r="D7" s="85" t="n"/>
@@ -11643,10 +12059,10 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="85" t="n"/>
       <c r="D8" s="85" t="n"/>
@@ -11673,10 +12089,10 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="85" t="n"/>
       <c r="D9" s="85" t="n"/>
@@ -11703,10 +12119,10 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="85" t="n"/>
       <c r="D10" s="85" t="n"/>
@@ -11733,10 +12149,10 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="85" t="n"/>
       <c r="D11" s="85" t="n"/>
@@ -11763,10 +12179,10 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="85" t="n"/>
       <c r="D12" s="85" t="n"/>
@@ -11793,10 +12209,10 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="85" t="n"/>
       <c r="D13" s="85" t="n"/>
@@ -11823,10 +12239,10 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C14" s="85" t="n"/>
       <c r="D14" s="85" t="n"/>
@@ -11853,10 +12269,10 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="85" t="n"/>
       <c r="D15" s="85" t="n"/>
@@ -11883,10 +12299,10 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="85" t="n"/>
       <c r="D16" s="85" t="n"/>
@@ -11913,10 +12329,10 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" s="85" t="n"/>
       <c r="D17" s="85" t="n"/>
@@ -11943,10 +12359,10 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" s="85" t="n"/>
       <c r="D18" s="85" t="n"/>
@@ -11973,10 +12389,10 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" s="85" t="n"/>
       <c r="D19" s="85" t="n"/>
@@ -12002,7 +12418,12 @@
       <c r="X19" s="70" t="n"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="B20" s="86" t="n"/>
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="C20" s="85" t="n"/>
       <c r="D20" s="85" t="n"/>
       <c r="E20" s="77" t="n"/>
@@ -12027,7 +12448,12 @@
       <c r="X20" s="70" t="n"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="B21" s="86" t="n"/>
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="C21" s="85" t="n"/>
       <c r="D21" s="85" t="n"/>
       <c r="E21" s="76" t="n"/>
@@ -12518,10 +12944,10 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -12529,7 +12955,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="107" t="n">
-        <v>35.98</v>
+        <v>30.96</v>
       </c>
       <c r="C2" s="97" t="n"/>
       <c r="D2" s="99" t="n"/>
@@ -12559,7 +12985,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="107" t="n">
-        <v>30.64</v>
+        <v>31.95</v>
       </c>
       <c r="C3" s="95" t="n"/>
       <c r="D3" s="98" t="n"/>
@@ -12586,10 +13012,10 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="107" t="n">
-        <v>32.46</v>
+        <v>30.24</v>
       </c>
       <c r="C4" s="95" t="n"/>
       <c r="D4" s="98" t="n"/>
@@ -12616,10 +13042,10 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="107" t="n">
-        <v>38.73</v>
+        <v>37.85</v>
       </c>
       <c r="C5" s="95" t="n"/>
       <c r="D5" s="98" t="n"/>
@@ -12648,8 +13074,8 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="108" t="n">
-        <v>27.78</v>
+      <c r="B6" s="107" t="n">
+        <v>38.73</v>
       </c>
       <c r="C6" s="95" t="n"/>
       <c r="D6" s="98" t="n"/>
@@ -12678,8 +13104,8 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="108" t="n">
-        <v>25.79</v>
+      <c r="B7" s="109" t="n">
+        <v>24.44</v>
       </c>
       <c r="C7" s="97" t="n"/>
       <c r="D7" s="98" t="n"/>
@@ -12706,10 +13132,10 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="107" t="n">
-        <v>37.34</v>
+        <v>39.86</v>
       </c>
       <c r="C8" s="95" t="n"/>
       <c r="D8" s="98" t="n"/>
@@ -12736,10 +13162,10 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="107" t="n">
-        <v>35.78</v>
+        <v>32.49</v>
       </c>
       <c r="C9" s="97" t="n"/>
       <c r="D9" s="99" t="n"/>
@@ -12766,10 +13192,10 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="107" t="n">
-        <v>34.74</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="109" t="n">
+        <v>28.68</v>
       </c>
       <c r="C10" s="95" t="n"/>
       <c r="D10" s="98" t="n"/>
@@ -12796,10 +13222,10 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="107" t="n">
-        <v>38.62</v>
+        <v>33.65</v>
       </c>
       <c r="C11" s="95" t="n"/>
       <c r="D11" s="98" t="n"/>
@@ -12826,10 +13252,10 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="108" t="n">
-        <v>29.69</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="107" t="n">
+        <v>36.81</v>
       </c>
       <c r="C12" s="95" t="n"/>
       <c r="D12" s="98" t="n"/>
@@ -12856,10 +13282,10 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="107" t="n">
-        <v>35.24</v>
+        <v>30.5</v>
       </c>
       <c r="C13" s="97" t="n"/>
       <c r="D13" s="99" t="n"/>
@@ -12886,10 +13312,10 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="108" t="n">
-        <v>20.42</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="107" t="n">
+        <v>37.52</v>
       </c>
       <c r="C14" s="95" t="n"/>
       <c r="D14" s="98" t="n"/>
@@ -12916,10 +13342,10 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="107" t="n">
-        <v>38.73</v>
+        <v>34.31</v>
       </c>
       <c r="C15" s="97" t="n"/>
       <c r="D15" s="99" t="n"/>
@@ -12946,10 +13372,10 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" s="107" t="n">
-        <v>34.24</v>
+        <v>36.22</v>
       </c>
       <c r="C16" s="95" t="n"/>
       <c r="D16" s="98" t="n"/>
@@ -12976,10 +13402,10 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="107" t="n">
-        <v>33.82</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="109" t="n">
+        <v>25.73</v>
       </c>
       <c r="C17" s="95" t="n"/>
       <c r="D17" s="98" t="n"/>
@@ -13006,10 +13432,10 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="107" t="n">
-        <v>34.67</v>
+        <v>37.95</v>
       </c>
       <c r="C18" s="95" t="n"/>
       <c r="D18" s="98" t="n"/>
@@ -13036,10 +13462,10 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="107" t="n">
-        <v>35.53</v>
+        <v>31.33</v>
       </c>
       <c r="C19" s="97" t="n"/>
       <c r="D19" s="99" t="n"/>
@@ -13065,7 +13491,12 @@
       <c r="X19" s="70" t="n"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="B20" s="86" t="n"/>
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="109" t="n">
+        <v>24.09</v>
+      </c>
       <c r="C20" s="95" t="n"/>
       <c r="D20" s="98" t="n"/>
       <c r="E20" s="101" t="n"/>
@@ -13090,7 +13521,12 @@
       <c r="X20" s="70" t="n"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="B21" s="90" t="n"/>
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="107" t="n">
+        <v>37.4</v>
+      </c>
       <c r="C21" s="97" t="n"/>
       <c r="D21" s="99" t="n"/>
       <c r="E21" s="103" t="n"/>
@@ -13643,7 +14079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G26" sqref="G26"/>
@@ -13660,10 +14096,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13671,7 +14107,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13679,23 +14115,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13703,7 +14139,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -13711,103 +14147,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>106</v>
+      <c r="B21" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -13822,7 +14274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -13832,10 +14284,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13843,7 +14295,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13851,23 +14303,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13875,7 +14327,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -13883,103 +14335,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>124</v>
+      <c r="B21" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -13993,7 +14461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -14003,10 +14471,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14014,7 +14482,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14022,23 +14490,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -14046,7 +14514,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -14054,103 +14522,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>142</v>
+      <c r="B21" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -14164,7 +14648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -14174,10 +14658,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14185,7 +14669,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14193,23 +14677,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -14217,7 +14701,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -14225,103 +14709,119 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>159</v>
+      <c r="B21" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
